--- a/biology/Microbiologie/Cercaria_(cilié)/Cercaria_(cilié).xlsx
+++ b/biology/Microbiologie/Cercaria_(cilié)/Cercaria_(cilié).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cercaria_(cili%C3%A9)</t>
+          <t>Cercaria_(cilié)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercaria est un genre de Ciliés de la famille des Colepidae.
 Cercaria est aussi considéré comme un synonyme pour Euglena.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cercaria_(cili%C3%A9)</t>
+          <t>Cercaria_(cilié)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cercaria_(cili%C3%A9)</t>
+          <t>Cercaria_(cilié)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cercaria_(cili%C3%A9)</t>
+          <t>Cercaria_(cilié)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,9 +580,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (18 octobre 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (18 octobre 2022) :
 Cercaria armata
 Cercaria capricornia
 Cercaria catellus Müller, 1773
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cercaria_(cili%C3%A9)</t>
+          <t>Cercaria_(cilié)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(la) O.F. Müller (1773), Vermium Terrestrium et Fluviatilium, seu animalium infusorium, helminthicorum et testaceourum, non marinorum, succinta historia, Havniae (Copenhague) et Lipsiae (Leipzig) : Heineck et Faber [lire en ligne].</t>
         </is>
